--- a/BioSTEAM 2.x.x/biorefineries/abm/cornstover_tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/abm/cornstover_tables.xlsx
@@ -643,7 +643,7 @@
         <v>2721.555</v>
       </c>
       <c r="D9">
-        <v>0.05329940358070667</v>
+        <v>0.05329940358070669</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -798,7 +798,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.8176890412640065</v>
+        <v>0.8176890412640067</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -860,7 +860,7 @@
         <v>47</v>
       </c>
       <c r="C4">
-        <v>4.672508807222894</v>
+        <v>4.672508807222895</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -882,7 +882,7 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>5.256572408125756</v>
+        <v>5.256572408125757</v>
       </c>
     </row>
     <row r="7" spans="1:3">
